--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/5_Aksaray_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/5_Aksaray_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B05BF35-7B2B-4436-8894-36F5C3484A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8293C973-AFF6-4B0E-B5CB-B97C78E14631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3812A3F3-E5CC-4EEF-834D-AB17C80B9093}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{278CF475-04E4-4631-B520-B0390DEAE633}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{633FD1B3-E89D-469A-B858-0BDFA827E19D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{D52A94FB-F140-448A-BBBC-E4A7489A3959}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{2294E6AC-F2FC-4DDC-98BA-8DFC06F2D61E}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{C84437AD-9FB1-4021-BF6E-326E5D3F6D9B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{A543EF0B-3F71-4660-8AE6-A4E9D402122A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{04EA0173-BFFE-4C7F-8472-E3468878DA57}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{811F7325-BA4B-411B-9948-376E8E641289}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{7067ED0E-A352-4AD2-BD68-78D075EE4AD2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835E8C9F-D401-4E79-A5C0-B288F35CA159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E753E6-6DA0-433A-9982-FEF339D706F4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2459,18 +2459,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CF22FFC8-38DA-45F5-B3D3-583B0C080057}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9D74EA3F-6017-4D38-B4D7-2B67AEBA0DD6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F5D305B5-2D85-48C7-8360-438AA8D03E7A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2AB7170F-9B54-4843-9AFB-CC4025ABC54A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F736FE8A-49F4-4508-A7D7-FE7C9359D73A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F747CF14-1B3D-4420-AE6F-688894FD0513}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1C55D2F1-CB19-432D-A392-0CD13C5C39F9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E51C1337-A5AD-4ACF-8087-E2BED8514ECB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CB51AFED-A459-4CD7-9E52-07161437716D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EEAC9623-A18C-45C0-99F1-B9FA26E1D1E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{87C63797-2A5C-411F-9B05-F5A72807217A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E3B1E770-39A1-42D4-8F5A-7A694290F645}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2E3BBC47-BA63-4F42-B008-12642953214B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{32563C1A-B9C9-4AA2-8896-7A4ABD4C787B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{500608E6-AB67-4015-A93D-899CEFF83BD8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F436F31A-82F0-475D-8AAA-57644FEB7582}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{70FB703D-D234-47DE-9562-9477C7B0D1BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B5380AA2-97A5-4B34-B3BA-EBB13CB9F227}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1B5DAD8D-57CE-498E-88C1-779288524188}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{51D85907-0ADE-431B-A7DD-C79AFDCFD1CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F6A64E8E-E743-4203-8CF5-CB1CE7FD399A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BB85DD51-6B80-40F7-8A5C-7F991BF83ACB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5E732E80-67BB-4CC5-B856-B773F653C284}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{45C61105-E300-46A9-8228-9655D3501139}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2483,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F7397C-F86A-4AF0-A76F-509DDE34FE62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87C6493-1238-4565-AA8C-31C007B8A936}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3688,18 +3688,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{851E61CA-F165-4512-AD85-7E3E7F688FE9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B408CF08-D396-436E-8571-A32EBCF89707}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4E2BAE9F-43C1-4680-869A-A4B259A1A0DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{489EF918-D15D-42CB-B95A-C5D42EF4CE85}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{018B7130-55A5-4799-95D4-0EDFD1705651}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{588E120E-8A4C-41D4-9C32-0DFE1A02EF70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6EB1982E-89C0-468D-B25F-FEBA73E46C6A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{26D350B5-BD45-4F03-9027-4496F415B5B5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{951F24BD-988C-4FE2-A8B6-26B7CD0045CE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{13242520-4F7D-4B72-8155-AB29A086014B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A7556B64-B1D6-4FB8-AFAA-70A2A99F67AA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1C510B2E-46DB-4BD8-A0C4-B8BA2C307C2E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{66D403EB-B2CB-45F9-A663-15A3FACA8ED5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EFF46354-65C6-4155-8097-8E231E0E2D04}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{96A6CA62-25EA-456D-9AFE-CDE8B67C21D7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D697F75B-5F32-4788-A685-C58431ECEEA0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{770C45DA-3EB4-4FE5-A999-5D739B1FE312}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D90DCECA-BC9E-422C-8D3B-DD473247565F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C4070474-80DD-4F81-8A26-E4C68E1514E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6BE440BC-0C37-46D4-B813-6BE85ECBA290}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A08D33D0-C164-4ABF-855D-AB788CB13CB2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{63728FBB-332A-4DE1-8183-ADEBA344FFF0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7AB92A2C-08A6-444D-B5CF-8EA51F14130F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{478554C8-575F-4897-B220-543DA0F46202}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3712,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63818ED9-0D60-4E22-B52B-7C1CCA207A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3BAA31-5533-403B-B486-59585F381DA9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4905,18 +4905,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2D47A6B7-9F40-4D0E-A3D2-9232B11C4270}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F82EC53A-E3B4-4767-A4B2-FD9F1ABFED54}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9BC68A07-3073-4586-970D-A8FFC41B120C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BA7BD841-E3D3-4723-B8B0-73BAFC3F0048}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{66ABBC6E-D518-4C7B-98F4-87033ACCDA41}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BADFB4B1-FA93-4E6A-8A3F-7A54D9811FE8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DCA640FF-22C5-4169-938D-62581984BAEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E40FC522-21F1-4EFC-A6EF-786F725A2652}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2E900ECC-5D13-4C37-A6FE-3347FDE567C4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C7A788FE-DB27-4DDE-B13D-178171660950}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B7D74376-3EC4-4315-8330-44B0BDAE0664}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6C291E2B-DC93-47BC-B7BA-9DCD8F5AE2D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C0F535BD-79BB-4725-AB40-89A0D6E5B652}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{58C1D17B-1B48-48EE-9EBE-0DF4BB122CD8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AB658B66-F0A7-4927-9BCC-D9819F8C5003}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9AC8CE93-D91D-46D0-AC4F-A709D21B553E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A9D9A805-B0B1-4D10-83E7-1FC0CA6837F7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3FFA38EC-40D5-4893-883C-FBBD3D3E7F13}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C579F55C-7995-4CD9-886E-8BA085731E42}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CEE0DE48-B476-4756-976F-9B7ACB89C4ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BF1DB603-78E8-4C0F-A151-5AD5B6BA56F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C4DD2431-08EF-4F23-BE19-E02495B354EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1359E95E-6DF3-49CC-8F59-39223E920091}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E760973D-4D48-47CB-B3F9-6137ED60DDCE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4929,7 +4929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACD8270-85B6-4FDD-910B-E3E6AA82A452}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F37297B-5317-4606-9D90-EA279D00E7C5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6108,18 +6108,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{370F4A3E-1953-4FA3-8908-7EE919843672}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{292B0B75-7165-40BD-A894-FA14A08B1A3C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3922A248-FAEC-426C-8C0B-3FA3B5B95B91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D2E04D58-3BB9-4F48-A115-0BF135FA8298}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{19E2287E-4814-4BA1-AAE0-EDD13BB1F5AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EF7364B4-8CEE-4441-9A4D-BF68D9C24A9A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1DBF335D-3823-48EA-9F79-37C224076B4D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5E542FE9-791B-404E-9443-3AED80680748}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C354AEEE-9DFA-4B05-A197-ED4ED44CF251}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A43BF4B2-F85B-4561-B034-F2C5A02DB0FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7473ECCE-0F88-464A-8B41-0F17CA708C6E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A0A8F317-49E5-4161-B5FA-FD8923B46D0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E466E25D-31C2-44CB-8B90-51F09C9DB2D8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{63730872-DE05-42E3-A433-9EFCB0DDBCFA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7E7686C3-C917-45B5-9896-AD0FE4BCBB06}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{92FF4F9C-AFA3-46C4-8EE4-07A8F4C6989F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BC3FE8F8-4A11-4235-A6F7-71914D3ADFE4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2F45C5F3-2D27-4004-B3C6-488A111F8CE9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{75DDC47C-640F-4BA1-B18F-8764E15E8544}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9725FBE0-0C35-432A-ADFA-36F08FFF0DF4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DC8F79A3-7EA0-4AA3-8385-60C306B472DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{88B76066-FB2D-4EB7-99B6-91C62775AD31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{447AE495-AEE1-48A6-8245-EC4182EF5952}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{058BE5CB-1708-45DE-A4D1-E005C392AC67}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6132,7 +6132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABEAE95-453E-4BD9-BD70-B5BA606078B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18034BA7-8128-45AD-96B7-F33493A7230C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7361,18 +7361,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{041A28F2-F1C1-4A72-B881-FCCD894F241F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D916934E-C687-4C0F-AABF-415A6C9B7AFF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5AB594EF-D342-42A0-A29E-4D7DA0D2AA84}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C4E38FC5-D750-4D1F-8EC6-20BAF5111519}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D712AAD3-91BF-42B3-B00F-E5F1F79DC23F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F7D4E796-B54E-48A4-9EC2-396CACBDDBE2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B43D31E1-1DAF-4724-B3F2-A6EE7099FAE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A0FA167C-00D6-47B6-8549-3EF050DAF1A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FA999CB6-D641-498C-843E-68AB0AC5820C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{142572A0-CBEF-4EAE-BC26-A4C54F56FC4D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ECB5AE87-58E0-43C1-8F28-9B27A4D2FD99}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1A55B6A0-99D6-4B27-B8D9-5BC060A760C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{16B44B34-7A6E-4411-9976-64B727953CC2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{010102B5-1BB6-4808-A7A0-DC05A6B9BACF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0E56761F-6418-4E9A-B09A-AE6C5C8E125B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7A718E7A-AF26-48F0-BDB7-F8EEFEC2CB70}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB4D2D43-E26F-4E18-945E-FE45B53EC1D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BBCBF3E1-49FF-49C8-B32B-210006E1D6EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{27712517-18E7-4E9B-8AED-D2064D56DE5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4EE3CE4E-DA42-4F4A-9CA2-2B243AE6E0C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A6B1863A-25FE-46D2-AF2E-5C171622A3A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E90483D1-3FA4-468E-AD76-139D493583CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{865F4BEC-F781-4E9D-BBE8-CBECCF59CFD0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5E247FAA-5A20-4A91-A28D-A882EC800008}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7385,7 +7385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35731472-CD95-4624-952B-E6CC48EC18E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE8748E-F64E-45B4-A2A6-174BBCC72C3B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8614,18 +8614,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{98AA8C9F-44DD-4EDC-9C0C-266BEC7D5521}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BCD53C86-5123-450C-84AF-D1CF020E0502}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{19AEBBDF-BF5B-4AED-9176-381CE3C4D44F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7FF323DD-6755-4758-AA0E-DF2747FEDDFD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0F9392B2-2A20-4FA0-A508-ED39CAD40E60}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{45838B99-171B-4E57-AF8F-FB304FE6DD73}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{82502BFA-F12D-44B8-832E-4FC0C4783397}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CF6D22B8-8CAD-4A5C-B8C5-8A5A3F66792F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8898E6BA-9E52-4BE9-8BC9-D3FAB6EB4B27}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5C56314B-8D18-489E-A5DA-40B05F3870C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{18E1E836-AFC4-4BCC-B6E1-18DB7A5C922A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{73EA3FD5-256F-4E66-AD0B-38A713EE9EBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{87FDB39C-A96B-459D-B1F5-F4BB6D944008}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{66488D62-AA2C-4877-B9BD-D00BDC9E224E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1E0B40CC-256C-4D70-BE6C-654D56A714B9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6BA39EBB-9900-4B9F-B376-D36D18ADC6FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E11F5B58-5D2D-4F76-89E5-55072E085381}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2989AA2D-BE11-4E71-B841-215F360FFA57}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D19D49A6-8B0C-421D-8467-23E0854C6BF0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0D1BA6DF-DD0B-4673-8980-AE42855B0ABA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CD78F0A5-9275-4B2D-B1EC-363A99DE25DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{890CD468-D69F-44C1-9E7B-ABFC4F33EEB8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{83D39CD6-432B-484A-A93D-9FA7D3274C6A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{28BC86D1-B691-46E4-8B99-9CE3C9A41D40}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8638,7 +8638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855FD75C-AAC9-4C59-AB20-6D5D1721C260}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BBFB5AB-B333-4F05-A9E1-A5CB0B55EE72}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9867,18 +9867,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7253E07F-F824-48B1-A342-1DE2E0E622CF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D0D6EDFA-5CE1-448F-AF28-9D7B87061FF5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5EFB24A9-80F4-49DF-B4AE-DF1E39AEE152}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5980BE01-2795-4BF4-B486-E6508D09D23A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{912EBCE2-8F7B-4519-9244-91BC2C6EAEEE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7B57CC40-70D8-456A-984D-0022614C04FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3D7D11E9-F990-48EC-ADDB-9CDC597F7F76}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{73825637-7D09-452A-AD6C-AD33A4A83FA0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EE781B3E-3456-4EC5-ACC8-3970969B8778}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C6185136-71E8-4E8F-8443-C36BAC4CAB9E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6DB66686-C54B-43A8-B645-DA60704CB7BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{91830E18-60F1-4B2D-870C-7157B4ECAE40}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ACED9B9D-3132-4520-9B1B-EED23D4CA512}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{72E88E03-EC64-45A3-8DF4-36B69634F6B0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CED80A4D-8180-4A59-883A-5291BC6EFC6E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{5BBE1339-EC25-4440-8CD9-28A43E39D5A0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B8495EFC-0EC9-4D23-A938-60B1A7CAD4DC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0EC136AA-4847-41D0-8F5F-EC22D5FD1B5C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{758EFCD7-A778-46A5-8B82-8A70E0D0341F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{643D360F-CB9F-4318-BA99-7AE602F4425A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{053D0B46-D0B2-460C-B26E-8D86872B93F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B294850E-381F-4F77-80B1-8F3D4885138F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{22DED1AA-81E4-4A86-BD6C-8521FD508CFC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{266AC319-A8B3-4139-BA55-F80598A1F9C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9891,7 +9891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE456B5E-8D21-47AE-9C6B-E852CDF64004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2F1444-296C-4381-9ACB-D962619A1BA6}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11112,18 +11112,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0A9F0FE8-FAD3-4705-BE1F-396F4862057F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4846656B-A884-411E-A40F-B095D4101A08}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F4F0FBA0-F8C7-461E-B735-D2344C309EB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2E6E2D43-E10B-4F16-8AF7-8557465D0DD5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{54954ED5-6777-4145-9413-F9934E6C49B4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DA94DD57-6B30-433B-B55A-A17CAA4768FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C6EE9B2F-26C1-4AC6-9D39-28E8AEF87D99}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9C858E63-8EFE-4E11-83A6-6E467F131ABA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DA5F6867-F78E-4D97-B9A1-7323412D13D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6C18C8FE-4716-4ECB-AA10-C225C38B177F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E5EE7958-8B19-4A9B-ABA3-09AF54A18D72}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0C7D37C9-07C6-4911-B63E-61C88411FA9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7CF1A5C8-58C0-4ED2-ABDD-27CA1BE30E7E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2D6C6F47-850A-4D9C-B033-CFD254947368}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8010AABC-5165-489B-ADCC-6908D5CC2A7C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{524DD2A2-3ABF-4097-8C07-8037B4787E85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3CB697DF-6683-4BA6-8F12-8D631B33CBA9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6B8D1AE2-5B64-4661-9D59-319690F7544B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FE30F447-B22A-4BE5-8E2D-D920B5424260}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{387816DC-D787-4018-84CC-1B8EEFDCE0AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{13F0A1E8-7075-448C-AC30-E061149B3D8F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8E4D9A0B-4804-4618-971A-21FDCC3FDDF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B97D1248-F77D-437C-87E7-B654289D0082}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{49F5F9CE-F73B-4738-8801-8632297AD852}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11136,7 +11136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2E4DEE-9208-4BDA-9D32-151A3F28F04A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7745251A-1984-47CC-9AB4-87BB41047B0C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12357,18 +12357,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1EFE35A9-B7A1-46CB-A91B-F4E962602DC9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9061454A-E8B4-4556-9606-3C6ADCD9BFE6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5A34ECBC-5F32-465C-BDA0-068C56552AD6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{15F7C0DD-36C0-4570-9881-500E17F31B69}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{88D13607-4501-43AD-BC92-D42260451995}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BC5899ED-6FE1-4422-8AFB-9B3A58830356}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DF45E212-181F-4CC6-85C1-A4754E8AD885}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{85B4C2A0-B165-4EA8-8C4F-C5533E5DA2E2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0A1B774E-66C0-462B-BA77-8E84E177E671}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C5A12A36-0585-4B1F-A10A-EB235C6DAA15}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{66F90241-318B-4D6E-9FC2-A57FEB8AB2DB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DE09F1AC-DEE0-467A-9F1E-4D6B2E715F6E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EB124AF7-5A97-4F77-BCF6-27271CD2FC26}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{20269080-C08F-4754-8E3E-D040861E3BC6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E5E1C6A3-2B8B-4306-A91C-31EEE52AFFF9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{39D475A0-CF48-46A7-AB4D-01E90325B5E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D79CE65B-7621-4834-9E61-36D940188429}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{90050AA0-7F35-4F67-8007-F0DCA9AE14F2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{85992A72-43B4-4F3E-BA0E-F406274D1698}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D5EE8741-F3A7-4E81-8FE0-BF67D9E939FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1036ADB1-B3B3-471E-A571-BE0BF4F4A3C3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7CD02F48-D051-4BAC-BD4B-9D4BCA3C720B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{12920091-051C-4262-ADF3-1988983FD36B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F2CAA297-EEBE-4D9C-A5C8-6EE302780AC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12381,7 +12381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE13FCE-1D04-4571-B846-747C85EF2F29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC956EE-EBF6-47C4-9ED5-3AC0C7F21718}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13604,18 +13604,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7FC9198D-07CD-4B56-B53D-4E8065F8FC9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A763978A-AEFA-4812-9F14-5F1517ABD15B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FA97A08C-A517-4CFC-87D4-86CF9A08A2A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9F08C728-EF23-4579-9ACD-84AB55A3A778}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EC11A841-9799-4D8E-B92C-9C55016E6982}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{10B9B227-7FBF-435C-B358-53D2BE402EF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CECF6D4D-6FCB-499F-87AE-75F7F11FC033}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{134623EA-CE61-4F18-9F88-B2EBAA6760D9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7E56FF27-32FC-490D-BD31-515AA6B98C61}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7FC10191-5E16-409B-AD1E-7DFE8ED86942}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9B9AA165-D8EC-4C8F-A44E-1DF21D981D62}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{68FDE7A6-8285-43A3-9678-10983AC087CD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AE3EF283-203C-4FDE-BD43-2967A67FF23C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DF556F10-8F41-4153-A0A0-B766F9E640E0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E067A6D7-5021-40D6-B30F-9D19A0EEA0B7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C2735EC2-81ED-481D-85E8-36CE29DD3AA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7EFC59B5-D840-44D0-81A1-C3140EF57C4D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{478E86E8-46D5-43C5-8412-544E9D3A6A62}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DCD57326-8B4A-423E-880D-14ACA1712395}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{70E1FF9F-A10A-4212-BBD5-DBA0F4DC9B83}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0AEE17CE-B3BB-427A-BEE3-29EDB75163EF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2C023E0F-3E48-4FA1-A012-02B2157BC7B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{356E4FBA-819C-4223-8994-712192C93BC9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{38800801-96E0-4E7C-BE7E-E14B61C277A1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13628,7 +13628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DB034D-FE93-4136-B9AA-EB59C0C7C345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9436352-8C91-4720-80B8-BE007D5C2A9C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14847,18 +14847,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8A07175E-4F92-408D-AB2E-175D50A9BB7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9FA440AD-5A3A-4627-9C75-F327537A1738}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D2E6354-8DA3-4E70-9054-7F1402EB562B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9B7137EA-D24E-4EAC-8DB8-F6F9EF97A9A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7BF514B4-9C4B-4250-9878-339F34EEBD5C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{81AADAA5-AAF3-42D6-8984-0A385AE60127}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1B1D70F2-D9DE-4AF2-866C-C8E95800D114}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{331E61C2-5E7B-4F2F-A696-EE262CB8BF9D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{CBD0F86C-C6A2-4D51-B81D-61CA3DDC5846}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{49E0BC1A-810F-47C9-966A-EA25A9D39892}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BAAD28D7-0F47-4756-BD1C-7FC433056C56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{48B1D258-ED43-486C-94BD-7FD807C753F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8A833C17-AD0A-4C31-8999-17080BED6B43}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E54A0133-5A29-41F7-AD75-CC0C5DAF7CC5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A1531C82-BB38-4532-9719-8010A1AF8D21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A34A1328-A48F-41DA-913C-6E99AD7BB700}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{632B6D2A-6B81-4BAB-9DAB-44412CD72FB6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{40BC6C98-3810-4C95-B8A9-1F6164FEE4B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3612E544-0197-4773-AA4E-3D225A898ACD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9A8AA6A7-F2E0-4755-9082-7864A3CA9A82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{80DDF7B9-D68C-48AF-9066-DB2C07C2DD83}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D0E36A34-30D5-4C2D-BE48-BE34B4AB7D71}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E09BD3F-F9EE-457A-AFA8-3FEB635578A1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A48B1753-8352-459C-8B3D-F19F094F9A7B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14871,7 +14871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BDF102-96CD-425E-8C66-9D679C2381B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC38852-916B-4DD7-9AAC-27B519371C12}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16090,18 +16090,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E4BB614D-16CE-4F42-B0C9-3577595D2661}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B061C94B-4460-402F-899A-3FB21A9912BB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{099A46C1-A6D7-48ED-91D0-0B6AE329A9C2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{64ED7B3D-7B45-4417-8BE5-AD368AD659A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7013FD0D-B3FC-4B8E-B96E-83B53416AE8B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6464759C-EE7C-48C4-A12C-8B5FBB1B4C45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D4077C8E-AB23-491D-B140-1479C2F575C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9B8D7ED7-B9F2-4045-B9B0-2505607FC241}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{427A3233-D6A9-49FB-AD84-9CB34C877ED9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A5EF69E8-F50B-4AFC-84F7-AA65FE1EB7D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B2612D58-A263-4D9F-B808-CF2C25AEF254}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BFC59D61-AD14-4AB1-8DBF-0F49D95A5692}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3477FEA0-9AC1-489F-A440-86A28A1C5094}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{701E52D5-BFBF-4E8E-879D-43F01984B9C0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D15E26F0-125E-460C-83E5-8491AA5ED859}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{81B60F6D-F81E-450C-BF77-97244E22546D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{D32F6D60-A063-443C-AACE-5B574D4041BB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F79D312D-2354-4702-A5D8-E3588CCEE90C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{47AFF3F2-68B7-41CA-8266-FC10BFCFAF8A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C7347408-DF8F-4E12-A395-FA6FC6612D6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B60D30C9-F195-449E-8A74-FDDD9EE2D0FA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D024DEE4-C9EB-4EBB-9625-CC79788E6C4C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{96AA66F4-4CDD-4230-AB80-814BD4122053}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2644CA9A-2516-4BA8-8FF5-8C6993CF896D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
